--- a/Humble/모델분석.xlsx
+++ b/Humble/모델분석.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neurorobotics\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neurorobotics\Desktop\Prj.HomePT\Humble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44133DC-AE09-41A8-A596-89891EF5217A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DEA4D-DC84-4B4A-B829-5AA17BF81C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{507B2B67-0C89-451A-BCF7-B5B1BB35317C}"/>
+    <workbookView xWindow="7200" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{507B2B67-0C89-451A-BCF7-B5B1BB35317C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,11 @@
   <si>
     <t>AAFT
 (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAFT
+(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,18 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,6 +240,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,52 +570,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967FC1FB-8999-4937-B1BD-CE454C4005FB}">
-  <dimension ref="C3:U13"/>
+  <dimension ref="C3:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="T4" t="s">
         <v>16</v>
       </c>
@@ -616,43 +625,43 @@
       </c>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="U5">
@@ -660,13 +669,13 @@
       </c>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1">
@@ -689,9 +698,9 @@
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1">
@@ -714,11 +723,11 @@
       </c>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1">
@@ -741,9 +750,9 @@
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1">
@@ -766,99 +775,144 @@
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F14" s="6">
         <v>3.5449000000000001E-6</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G14" s="6">
         <v>2.6100999999999998E-6</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H14" s="6">
         <v>2.6489999999999999E-5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I14" s="6">
         <v>3.0196999999999999E-5</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F16" s="6">
         <v>4.8609999999999997E-6</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G16" s="6">
         <v>0.63675499999999996</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H16" s="6">
         <v>2.6641000000000001E-5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I16" s="6">
         <v>3.1173999999999997E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I17" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Humble/모델분석.xlsx
+++ b/Humble/모델분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neurorobotics\Desktop\Prj.HomePT\Humble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DEA4D-DC84-4B4A-B829-5AA17BF81C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DA8C6-4875-4A63-B8CF-A4E5861CDB0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{507B2B67-0C89-451A-BCF7-B5B1BB35317C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{507B2B67-0C89-451A-BCF7-B5B1BB35317C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +151,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,25 +249,46 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +608,7 @@
   <dimension ref="C3:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,40 +618,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="F4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="T4" t="s">
         <v>16</v>
       </c>
@@ -669,25 +704,25 @@
       </c>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>3.1787999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="19">
         <v>3.5691000000000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>3.3584000000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="19">
         <v>2.9518</v>
       </c>
       <c r="T6" t="s">
@@ -698,21 +733,21 @@
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
         <v>0.88229999999999997</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>0.49409999999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>0.88239999999999996</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="11">
         <v>0.33329999999999999</v>
       </c>
       <c r="T7" t="s">
@@ -723,23 +758,23 @@
       </c>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>3.1684000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="18">
         <v>3.5482</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>3.3555999999999999</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="18">
         <v>2.8955000000000002</v>
       </c>
       <c r="T8" t="s">
@@ -750,21 +785,21 @@
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0.91669999999999996</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>0.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>0.91669999999999996</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="T9" t="s">
@@ -775,136 +810,171 @@
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="13">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1.9E-3</v>
+      </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H12" s="12">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3.2000000000000002E-3</v>
+      </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="13">
         <v>3.5449000000000001E-6</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="17">
         <v>2.6100999999999998E-6</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="13">
         <v>2.6489999999999999E-5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="17">
         <v>3.0196999999999999E-5</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="12">
         <v>4.8609999999999997E-6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="16">
         <v>0.63675499999999996</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="12">
         <v>2.6641000000000001E-5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="16">
         <v>3.1173999999999997E-5</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="F3:Q3"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
@@ -913,6 +983,11 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
